--- a/Validador Deficit HC.xlsx
+++ b/Validador Deficit HC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danilo.cabral\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danilo.cabral\Documents\GitHub\dmedeiroscabral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA346EE-8029-4F7F-B7F5-7A7173131778}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745B6AE3-A858-4652-9B07-5CEE3FCE52E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8640" windowHeight="7320" xr2:uid="{CC1890DA-60D1-4E73-A829-7C2D3F8552B2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>JORNADA</t>
   </si>
@@ -57,12 +57,6 @@
     <t>EXCEDENTE TOTAL</t>
   </si>
   <si>
-    <t>META PAUSA</t>
-  </si>
-  <si>
-    <t>TEMPO PERDIDO PAUSA</t>
-  </si>
-  <si>
     <t>TEMPO PERDIDO TOTAL</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
   </si>
   <si>
     <t>tempo perdido total</t>
-  </si>
-  <si>
-    <t>junior</t>
   </si>
 </sst>
 </file>
@@ -167,7 +158,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,6 +176,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>90323</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>196385</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>23850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB6EA29E-BAC6-46B6-B283-BB1571422C30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9278664" y="0"/>
+          <a:ext cx="4515480" cy="3801005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D37528-BF9B-4BFC-A5C4-AA2EC5E7AB1C}">
-  <dimension ref="A4:I21"/>
+  <dimension ref="A4:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,16 +546,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="9">
-        <v>1154</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.34166666666666662</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -523,16 +563,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>0.23</v>
+        <v>0.28611111111111109</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I5" s="1">
-        <v>0.25347222222222221</v>
+        <v>0.33209490740740738</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -540,14 +580,14 @@
         <v>7</v>
       </c>
       <c r="B6" s="5">
-        <v>7.5462962962962966E-3</v>
+        <v>9.571759259259259E-3</v>
       </c>
       <c r="F6" s="10"/>
       <c r="H6" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1">
-        <v>0.23611111111111113</v>
+        <v>0.28611111111111109</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -555,75 +595,72 @@
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>3.6805555555555554E-3</v>
+        <v>1.0416666666666667E-3</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1">
-        <v>5.2083333333333336E-2</v>
+        <v>4.6874999999999998E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
-        <v>5.115740740740741E-3</v>
+        <v>6.9444444444444444E-5</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8" s="1">
-        <v>2.0833333333333332E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
-        <v>9.8379629629629642E-4</v>
+        <v>3.5763888888888894E-3</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I9" s="1">
         <f>I4-I5</f>
-        <v>1.0416666666666685E-2</v>
+        <v>9.5717592592592382E-3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
-        <v>7.3032407407407412E-3</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1">
         <f>I7-I8</f>
-        <v>3.125E-2</v>
+        <v>4.6874999999999998E-3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
-        <v>2.4305555555555552E-4</v>
+        <v>0</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I11" s="1">
         <f>SUM(I9:I10)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>1.4259259259259239E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
-        <v>8.564814814814815E-4</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I12" s="12">
         <f>I11/I6</f>
-        <v>0.17647058823529418</v>
+        <v>4.9838187702265307E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -632,7 +669,7 @@
       </c>
       <c r="B13" s="5">
         <f>SUM(B7:B12)</f>
-        <v>1.8182870370370374E-2</v>
+        <v>4.6875000000000007E-3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -640,59 +677,54 @@
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="3">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3">
-        <f>IF(B13&lt;B15,0,B13-B15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
       <c r="B18" s="6">
-        <f>B16+B6</f>
-        <v>7.5462962962962966E-3</v>
+        <f>B13+B6</f>
+        <v>1.425925925925926E-2</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="7">
         <f>(B18*B4)/B5</f>
-        <v>37.862721417069245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.877669902912622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="4">
         <f>B20/B4</f>
-        <v>3.2809983896940419E-2</v>
-      </c>
+        <v>4.9838187702265377E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>